--- a/Tableau synthese yacine.xlsx
+++ b/Tableau synthese yacine.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\yacine wewe\Portfolio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yaya6\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85E6A7F9-E7B4-4E03-B1EC-ADEB41DDC4DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{18BD98C3-21E7-48A8-9BE3-380D65689130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
   <si>
     <t>BTS SERVICES INFORMATIQUES AUX ORGANISATIONS</t>
   </si>
@@ -57,12 +57,6 @@
   </si>
   <si>
     <t>Option :</t>
-  </si>
-  <si>
-    <t>▢ SISR</t>
-  </si>
-  <si>
-    <t>▢ SLAM</t>
   </si>
   <si>
     <t>Compétences mises en œuvre
@@ -177,19 +171,52 @@
     <t>B1.5.2</t>
   </si>
   <si>
-    <t>B1.1.5 et.2</t>
-  </si>
-  <si>
-    <t>B1.1.1 et B1.1.2</t>
-  </si>
-  <si>
     <t>B1.2.1 et .2</t>
   </si>
   <si>
     <t>B1.5.1 et .2</t>
   </si>
   <si>
-    <t xml:space="preserve">Adresse URL du portfolio : </t>
+    <t>Adresse URL du portfolio : https://yacine695.github.io/portfolio/</t>
+  </si>
+  <si>
+    <t>installation de routeurs et de commutatateurs</t>
+  </si>
+  <si>
+    <t>B1,2,2</t>
+  </si>
+  <si>
+    <t>Configuration de pare-feux</t>
+  </si>
+  <si>
+    <t>B1.1.3</t>
+  </si>
+  <si>
+    <t>Supervision</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Active Directory</t>
+  </si>
+  <si>
+    <t>PDQ Deploy</t>
+  </si>
+  <si>
+    <t>B1.1.5</t>
+  </si>
+  <si>
+    <t>B1.1.1/ 3/4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1.1.1/3/4/5 </t>
+  </si>
+  <si>
+    <t>Cyberwatch</t>
+  </si>
+  <si>
+    <t>B1.1.1/4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SISR</t>
   </si>
 </sst>
 </file>
@@ -199,7 +226,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -273,6 +300,17 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -679,7 +717,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -768,9 +806,48 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -795,44 +872,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1144,8 +1200,8 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:H5"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1159,124 +1215,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="30"/>
+      <c r="H1" s="32"/>
     </row>
     <row r="2" spans="1:43" ht="40.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
     </row>
     <row r="3" spans="1:43" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="37" t="s">
+      <c r="A3" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="32"/>
-      <c r="H3" s="38"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="51"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="36"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="49"/>
       <c r="F4" s="12" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="19"/>
+    </row>
+    <row r="5" spans="1:43" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="43"/>
+    </row>
+    <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="B6" s="39" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:43" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="51"/>
-    </row>
-    <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="39" t="s">
+      <c r="C6" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="D6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="E6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="G6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="H6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="6" t="s">
+    </row>
+    <row r="7" spans="1:43" s="2" customFormat="1" ht="325.14999999999998" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="31"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="D7" s="20" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:43" s="2" customFormat="1" ht="325.14999999999998" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="40"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="27" t="s">
+      <c r="E7" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="F7" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="G7" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="H7" s="21" t="s">
         <v>19</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>21</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
@@ -1315,16 +1369,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="43"/>
+      <c r="A8" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="35"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1363,7 +1417,7 @@
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="22"/>
@@ -1410,7 +1464,7 @@
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="29" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="14"/>
@@ -1419,7 +1473,7 @@
       <c r="F10" s="22"/>
       <c r="G10" s="22"/>
       <c r="H10" s="24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I10"/>
       <c r="J10"/>
@@ -1459,12 +1513,12 @@
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="29" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E11" s="22"/>
       <c r="F11" s="22"/>
@@ -1508,7 +1562,7 @@
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="29" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="22"/>
@@ -1517,7 +1571,7 @@
       <c r="F12" s="22"/>
       <c r="G12" s="22"/>
       <c r="H12" s="24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I12"/>
       <c r="J12"/>
@@ -1557,7 +1611,7 @@
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="22"/>
@@ -1566,7 +1620,7 @@
       <c r="F13" s="25"/>
       <c r="G13" s="22"/>
       <c r="H13" s="24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I13"/>
       <c r="J13"/>
@@ -1830,16 +1884,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="46"/>
+      <c r="A19" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="38"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1877,24 +1931,22 @@
       <c r="AQ19"/>
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="H20" s="24" t="s">
+      <c r="A20" s="52" t="s">
         <v>31</v>
       </c>
+      <c r="B20" s="53"/>
+      <c r="C20" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="55"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -1932,14 +1984,18 @@
       <c r="AQ20"/>
     </row>
     <row r="21" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="9"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="16"/>
+      <c r="A21" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="53"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="55"/>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
@@ -1977,13 +2033,18 @@
       <c r="AQ21"/>
     </row>
     <row r="22" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="9"/>
-      <c r="B22" s="8"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="16"/>
+      <c r="A22" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="53"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22" s="55"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
@@ -2021,14 +2082,18 @@
       <c r="AQ22"/>
     </row>
     <row r="23" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="9"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="16"/>
+      <c r="A23" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="53"/>
+      <c r="C23" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="55"/>
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23"/>
@@ -2066,14 +2131,18 @@
       <c r="AQ23"/>
     </row>
     <row r="24" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="9"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="16"/>
+      <c r="A24" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="53"/>
+      <c r="C24" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="55"/>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
@@ -2111,14 +2180,14 @@
       <c r="AQ24"/>
     </row>
     <row r="25" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="9"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="16"/>
+      <c r="A25" s="52"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="55"/>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25"/>
@@ -2155,15 +2224,15 @@
       <c r="AP25"/>
       <c r="AQ25"/>
     </row>
-    <row r="26" spans="1:43" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="9"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="16"/>
+    <row r="26" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A26" s="52"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="55"/>
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26"/>
@@ -2201,16 +2270,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="46"/>
+      <c r="A27" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="38"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2248,24 +2317,22 @@
       <c r="AQ27"/>
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="53"/>
+      <c r="C28" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="H28" s="24" t="s">
-        <v>31</v>
-      </c>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="H28" s="55"/>
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
@@ -2303,14 +2370,18 @@
       <c r="AQ28"/>
     </row>
     <row r="29" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="9"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="16"/>
+      <c r="A29" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="53"/>
+      <c r="C29" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="55"/>
       <c r="I29"/>
       <c r="J29"/>
       <c r="K29"/>
@@ -2348,14 +2419,18 @@
       <c r="AQ29"/>
     </row>
     <row r="30" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="9"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="16"/>
+      <c r="A30" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="53"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="55"/>
       <c r="I30"/>
       <c r="J30"/>
       <c r="K30"/>
@@ -2639,6 +2714,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -2646,11 +2726,6 @@
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -2661,6 +2736,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100165EFD6D91C2F84BAD70F011B38B3276" ma:contentTypeVersion="5" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="73e306c020ebbf80b6f3f88d1f76149b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f3c6bcd0-d32b-4ef0-8484-71ebbbbf4f44" xmlns:ns3="33f8cbea-5dab-4a03-90e3-80dbb3ebee2d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="68d9dae5b0150fe2cf52b4f82202876c" ns2:_="" ns3:_="">
     <xsd:import namespace="f3c6bcd0-d32b-4ef0-8484-71ebbbbf4f44"/>
@@ -2831,12 +2912,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2847,6 +2922,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C67F069-A50D-423D-9C29-FB1CD4A111EC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98BEDBF7-54D3-4FB1-B0C0-C34E18C6D230}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2865,15 +2949,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C67F069-A50D-423D-9C29-FB1CD4A111EC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89043933-6526-4BB0-BE84-4F8A6FC88E33}">
   <ds:schemaRefs>
